--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.54849999999999</v>
+        <v>16.55159999999999</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.37469999999999</v>
+        <v>-12.63749999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.37109999999998</v>
+        <v>-21.60369999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.53049999999999</v>
+        <v>-21.59020000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.25729999999998</v>
+        <v>-14.47389999999998</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.03590000000001</v>
+        <v>-21.82080000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>18.10320000000001</v>
+        <v>17.92810000000003</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.37990000000001</v>
+        <v>16.54050000000002</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.26320000000001</v>
+        <v>-12.2239</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.5468</v>
+        <v>16.61919999999999</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.2981</v>
+        <v>-11.80610000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.7928</v>
+        <v>-12.948</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.2284</v>
+        <v>-13.42009999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.16050000000001</v>
+        <v>-19.8719</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.8331</v>
+        <v>-12.5758</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.4149</v>
+        <v>16.36659999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.50219999999999</v>
+        <v>16.49669999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.57779999999999</v>
+        <v>16.5895</v>
       </c>
     </row>
     <row r="48">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2735</v>
+        <v>-22.17919999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.32970000000001</v>
+        <v>16.46710000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.73359999999999</v>
+        <v>-21.6895</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.0238</v>
+        <v>-12.07100000000001</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.32830000000001</v>
+        <v>17.50240000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.62010000000001</v>
+        <v>-12.17370000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.6335</v>
+        <v>-20.72269999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.16799999999998</v>
+        <v>-20.25149999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.21079999999998</v>
+        <v>-13.54879999999998</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.66369999999999</v>
+        <v>-12.65079999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.10020000000002</v>
+        <v>18.13600000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.7003</v>
+        <v>-12.46240000000001</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.5754</v>
+        <v>-12.631</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,13 +2151,13 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.3435</v>
+        <v>-12.30760000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.69250000000002</v>
+        <v>16.6429</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.12060000000001</v>
+        <v>-13.13160000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
